--- a/01LoadPlot_Summer_NorthEast_Household less than 150 unit per month 3.xlsx
+++ b/01LoadPlot_Summer_NorthEast_Household less than 150 unit per month 3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Time</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Mayปี57</t>
   </si>
 </sst>
 </file>
@@ -649,7 +652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -668,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3">
-        <v>20880</v>
-      </c>
-      <c r="C1" s="1">
-        <v>20911</v>
+        <v>41699</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D1" s="1">
         <v>20941</v>
